--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_24_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_24_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65216.51101950463</v>
+        <v>12820722.57229312</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>65216.51101950463</v>
+        <v>12820722.57229312</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>191442.5296123903</v>
+        <v>22018978.95143599</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>191442.5296123903</v>
+        <v>22018978.95143599</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1491915252.379755</v>
+        <v>34836526.69044381</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17454.32434251415</v>
+        <v>862925.4187076843</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33821.63120797365</v>
+        <v>1522159.17045215</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49905.68182438023</v>
+        <v>2181392.922196615</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>65541.28366767845</v>
+        <v>2840387.189539772</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>81176.91359005826</v>
+        <v>3499427.018432259</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>96812.74438586579</v>
+        <v>4158466.847324834</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>112332.0930729296</v>
+        <v>5052123.634948548</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>127570.6725401167</v>
+        <v>5889947.321628966</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>142925.9349894755</v>
+        <v>6493154.049578193</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>158561.564911855</v>
+        <v>7152193.878470724</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>174197.3957076624</v>
+        <v>7811233.707363295</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>189833.2265034692</v>
+        <v>8470273.536255952</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>205469.057299276</v>
+        <v>9129313.365148541</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>222035.2604853652</v>
+        <v>9608129.505341293</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>238563.4433739901</v>
+        <v>9949169.708073914</v>
       </c>
     </row>
   </sheetData>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>132</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>19</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>113.0000000000122</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>1.142691522836685e-11</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27150,13 +27150,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>295</v>
